--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30841-2023.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30841-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111053763</v>
+        <v>111052885</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,32 +692,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -725,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505308.2479573332</v>
+        <v>505474.9755723713</v>
       </c>
       <c r="R2" t="n">
-        <v>6913371.434886473</v>
+        <v>6913231.449676614</v>
       </c>
       <c r="S2" t="n">
         <v>15</v>
@@ -760,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -770,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111053919</v>
+        <v>111053811</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,39 +805,48 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rörviken (Rörviken), Mpd</t>
+          <t>Ön Haverö (Ön Haverö), Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505165.3769719804</v>
+        <v>505259.4328842252</v>
       </c>
       <c r="R3" t="n">
-        <v>6913430.654938316</v>
+        <v>6913359.747684986</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
@@ -910,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111052885</v>
+        <v>111053678</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,28 +927,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505474.9755723713</v>
+        <v>505315.2145614849</v>
       </c>
       <c r="R4" t="n">
-        <v>6913231.449676614</v>
+        <v>6913377.483213602</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -986,7 +1000,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +1010,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111053802</v>
+        <v>111053875</v>
       </c>
       <c r="B5" t="n">
-        <v>77259</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,39 +1049,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Ön Haverö (Ön Haverö), Mpd</t>
+          <t>Rörviken (Rörviken), Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505273.4006640643</v>
+        <v>505202.5913005515</v>
       </c>
       <c r="R5" t="n">
-        <v>6913350.017071255</v>
+        <v>6913425.139767874</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1136,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111053678</v>
+        <v>111053489</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,7 +1185,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1186,10 +1200,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505315.2145614849</v>
+        <v>505380.7652265744</v>
       </c>
       <c r="R6" t="n">
-        <v>6913377.483213602</v>
+        <v>6913393.377649955</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1258,10 +1272,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111053254</v>
+        <v>111053763</v>
       </c>
       <c r="B7" t="n">
-        <v>77259</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,28 +1284,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1299,10 +1317,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505418.1403733313</v>
+        <v>505308.2479573332</v>
       </c>
       <c r="R7" t="n">
-        <v>6913288.945539451</v>
+        <v>6913371.434886473</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1334,7 +1352,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1344,7 +1362,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1374,7 +1392,7 @@
         <v>111053781</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1496,7 +1514,7 @@
         <v>111053452</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1615,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111053811</v>
+        <v>111053919</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,48 +1645,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ön Haverö (Ön Haverö), Mpd</t>
+          <t>Rörviken (Rörviken), Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505259.4328842252</v>
+        <v>505165.3769719804</v>
       </c>
       <c r="R10" t="n">
-        <v>6913359.747684986</v>
+        <v>6913430.654938316</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1737,10 +1746,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111053357</v>
+        <v>111052930</v>
       </c>
       <c r="B11" t="n">
-        <v>78595</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,28 +1758,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6461</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1778,10 +1796,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505390.5931249987</v>
+        <v>505479.575643972</v>
       </c>
       <c r="R11" t="n">
-        <v>6913355.312167899</v>
+        <v>6913262.573581941</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1850,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111053875</v>
+        <v>111053802</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,39 +1880,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rörviken (Rörviken), Mpd</t>
+          <t>Ön Haverö (Ön Haverö), Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505202.5913005515</v>
+        <v>505273.4006640643</v>
       </c>
       <c r="R12" t="n">
-        <v>6913425.139767874</v>
+        <v>6913350.017071255</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1963,10 +1981,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111052930</v>
+        <v>111053254</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>77268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1975,37 +1993,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2013,10 +2022,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505479.575643972</v>
+        <v>505418.1403733313</v>
       </c>
       <c r="R13" t="n">
-        <v>6913262.573581941</v>
+        <v>6913288.945539451</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2085,10 +2094,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111053489</v>
+        <v>111053357</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>78604</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,37 +2106,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505380.7652265744</v>
+        <v>505390.5931249987</v>
       </c>
       <c r="R14" t="n">
-        <v>6913393.377649955</v>
+        <v>6913355.312167899</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD14" t="b">
